--- a/biology/Zoologie/Ashtoret/Ashtoret.xlsx
+++ b/biology/Zoologie/Ashtoret/Ashtoret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ashtoret est un genre de crabes de la famille des Matutidae. 
 </t>
@@ -511,15 +523,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (27 novembre 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (27 novembre 2020) :
 Ashtoret granulosa (Miers, 1877)
 Ashtoret lunaris (Forskål, 1775)
 Ashtoret maculata (Miers, 1877)
 Ashtoret miersii (Henderson, 1887)
 Ashtoret obtusifrons (Miers, 1877)
-Ashtoret picta (Hess, 1865) - espèce type[2]
+Ashtoret picta (Hess, 1865) - espèce type
 Ashtoret sangianulata Galil &amp; Clark, 1994
 Ashtoret shengmuae Galil &amp; Clark, 1994
 			Ashtoret lunaris.
@@ -552,9 +566,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom du genre Ashtoret fait référence à Ashtoret, la déesse phénicienne de la fertilité et de l'eau[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom du genre Ashtoret fait référence à Ashtoret, la déesse phénicienne de la fertilité et de l'eau.
 </t>
         </is>
       </c>
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Bella S. Galil et Paul F. Clark, « A revision of the genus Matuta Weber, 1795 (Crustacea: Brachyura: Calappidae) », Zoologische Verhandelingen, Leyde, Musée national d'histoire naturelle, vol. 294, no 1,‎ 1994, p. 1-55 (ISSN 0024-1652, lire en ligne)</t>
         </is>
